--- a/Laufzeiten.xlsx
+++ b/Laufzeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuejc6\PycharmProjects\Streamlit_dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527CF416-E559-47D9-8B45-36CE85B2A2A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C5218F-7A10-4F01-AFDB-867E67440DF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -82,7 +82,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -93,7 +93,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -103,6 +103,7 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -321,10 +322,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -371,11 +372,11 @@
       </c>
       <c r="F2" s="4">
         <f>SUM(B:B)</f>
-        <v>121.60999999999997</v>
+        <v>127.80999999999997</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(C:C)</f>
-        <v>0.49322916666666677</v>
+        <v>0.51822916666666674</v>
       </c>
       <c r="H2" s="6"/>
     </row>
@@ -390,7 +391,7 @@
         <v>2.5694444444444447E-2</v>
       </c>
       <c r="D3" s="11">
-        <f t="shared" ref="D3:D20" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D21" si="0">C3/B3</f>
         <v>4.1309396212933199E-3</v>
       </c>
       <c r="H3" s="6"/>
@@ -546,7 +547,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>48616</v>
+        <v>44963</v>
       </c>
       <c r="B13" s="1">
         <v>7.57</v>
@@ -672,6 +673,21 @@
         <v>4.0135902031063321E-3</v>
       </c>
       <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>44974</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="0"/>
+        <v>4.0322580645161289E-3</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D20">

--- a/Laufzeiten.xlsx
+++ b/Laufzeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuejc6\PycharmProjects\Streamlit_dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C5218F-7A10-4F01-AFDB-867E67440DF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB05752-216A-42BE-8B3A-4CC0AAB58DC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,10 +322,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -336,7 +336,7 @@
     <col min="9" max="9" width="12.5703125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -356,7 +356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44937</v>
       </c>
@@ -372,15 +372,15 @@
       </c>
       <c r="F2" s="4">
         <f>SUM(B:B)</f>
-        <v>127.80999999999997</v>
+        <v>144.92999999999995</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(C:C)</f>
-        <v>0.51822916666666674</v>
+        <v>0.58918981481481492</v>
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44939</v>
       </c>
@@ -391,12 +391,12 @@
         <v>2.5694444444444447E-2</v>
       </c>
       <c r="D3" s="11">
-        <f t="shared" ref="D3:D21" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D23" si="0">C3/B3</f>
         <v>4.1309396212933199E-3</v>
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44942</v>
       </c>
@@ -412,7 +412,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44945</v>
       </c>
@@ -428,7 +428,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44946</v>
       </c>
@@ -445,7 +445,7 @@
       <c r="E6" s="3"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44948</v>
       </c>
@@ -461,7 +461,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44949</v>
       </c>
@@ -478,7 +478,7 @@
       <c r="F8" s="8"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44953</v>
       </c>
@@ -495,7 +495,7 @@
       <c r="F9" s="9"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44954</v>
       </c>
@@ -512,7 +512,7 @@
       <c r="F10" s="7"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44955</v>
       </c>
@@ -529,7 +529,7 @@
       <c r="F11" s="7"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44960</v>
       </c>
@@ -545,7 +545,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44963</v>
       </c>
@@ -562,7 +562,7 @@
       <c r="F13" s="9"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44966</v>
       </c>
@@ -578,7 +578,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44967</v>
       </c>
@@ -594,7 +594,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44968</v>
       </c>
@@ -610,7 +610,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44969</v>
       </c>
@@ -626,7 +626,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44970</v>
       </c>
@@ -642,7 +642,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44972</v>
       </c>
@@ -658,7 +658,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44973</v>
       </c>
@@ -687,6 +687,36 @@
       <c r="D21" s="12">
         <f t="shared" si="0"/>
         <v>4.0322580645161289E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>44976</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="C22" s="9">
+        <v>3.6111111111111115E-2</v>
+      </c>
+      <c r="D22" s="12">
+        <f t="shared" si="0"/>
+        <v>4.0078924651621656E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>44977</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8.11</v>
+      </c>
+      <c r="C23" s="9">
+        <v>3.4849537037037033E-2</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" si="0"/>
+        <v>4.2971069096223221E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Laufzeiten.xlsx
+++ b/Laufzeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuejc6\PycharmProjects\Streamlit_dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB05752-216A-42BE-8B3A-4CC0AAB58DC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96487957-E6E0-4771-8AAF-C2AB5B5E7C64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,10 +322,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -372,11 +372,11 @@
       </c>
       <c r="F2" s="4">
         <f>SUM(B:B)</f>
-        <v>144.92999999999995</v>
+        <v>174.15999999999997</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(C:C)</f>
-        <v>0.58918981481481492</v>
+        <v>0.70311342592592607</v>
       </c>
       <c r="H2" s="6"/>
     </row>
@@ -391,7 +391,7 @@
         <v>2.5694444444444447E-2</v>
       </c>
       <c r="D3" s="11">
-        <f t="shared" ref="D3:D23" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D27" si="0">C3/B3</f>
         <v>4.1309396212933199E-3</v>
       </c>
       <c r="H3" s="6"/>
@@ -717,6 +717,66 @@
       <c r="D23" s="12">
         <f t="shared" si="0"/>
         <v>4.2971069096223221E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>44979</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7.21</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2.8784722222222225E-2</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" si="0"/>
+        <v>3.9923331792263836E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>44980</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="C25" s="9">
+        <v>3.0324074074074073E-2</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" si="0"/>
+        <v>4.1539827498731606E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>44982</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5.51</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1.9849537037037037E-2</v>
+      </c>
+      <c r="D26" s="12">
+        <f t="shared" si="0"/>
+        <v>3.6024568125294079E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>44983</v>
+      </c>
+      <c r="B27" s="1">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="C27" s="9">
+        <v>3.4965277777777783E-2</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" si="0"/>
+        <v>3.7964470985643625E-3</v>
       </c>
     </row>
   </sheetData>
@@ -730,7 +790,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576 F1:G1">
+  <conditionalFormatting sqref="F1:G1 D1:D1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
